--- a/testing/Testing Spreadsheets/Form Field Validations- Signup.xlsx
+++ b/testing/Testing Spreadsheets/Form Field Validations- Signup.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Page Name</t>
   </si>
@@ -37,70 +37,85 @@
     <t>signup.html</t>
   </si>
   <si>
-    <t>signupForm</t>
-  </si>
-  <si>
-    <t>First Name</t>
+    <t>signup</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>string&lt;70</t>
+  </si>
+  <si>
+    <t>field.1</t>
+  </si>
+  <si>
+    <t>coolkid</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>field.2</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>field.3</t>
+  </si>
+  <si>
+    <t>poiuytreqasdfghjklmnbvcxzzxcvbnmlkjhgfdsaqwertyuiop0987654321234567890a</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>string&lt;35</t>
   </si>
   <si>
-    <t>field.1</t>
-  </si>
-  <si>
-    <t>field.2</t>
-  </si>
-  <si>
-    <t>field.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name </t>
-  </si>
-  <si>
     <t>field.4</t>
   </si>
   <si>
     <t>field.5</t>
   </si>
   <si>
+    <t>hiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
+  </si>
+  <si>
     <t>string &lt;35</t>
   </si>
   <si>
     <t>field.6</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>0&lt;n&lt;150</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>string&lt;25</t>
   </si>
   <si>
     <t>field.7</t>
   </si>
   <si>
+    <t>hello</t>
+  </si>
+  <si>
     <t>field.8</t>
   </si>
   <si>
+    <t>namenamenamenamenamenamename</t>
+  </si>
+  <si>
     <t>field.9</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>string&lt; 255 + email provider</t>
-  </si>
-  <si>
-    <t>field.10</t>
-  </si>
-  <si>
-    <t>string&lt;255 + email provider</t>
-  </si>
-  <si>
-    <t>field.11</t>
-  </si>
-  <si>
-    <t>field.12</t>
+    <t>what</t>
   </si>
 </sst>
 </file>
@@ -203,8 +218,12 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -220,10 +239,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -239,10 +262,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -252,16 +279,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -271,16 +302,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -290,13 +325,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -307,13 +348,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -324,13 +371,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -341,65 +394,41 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
